--- a/Plots and Figures/Raw_Results/RESULTS_IEEE30_MainModelsTest_earlyStop_100Epochs.xlsx
+++ b/Plots and Figures/Raw_Results/RESULTS_IEEE30_MainModelsTest_earlyStop_100Epochs.xlsx
@@ -456,13 +456,13 @@
         <v>0.7089999914169312</v>
       </c>
       <c r="D2">
-        <v>0.8259999752044678</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="E2">
         <v>0.5895627644569816</v>
       </c>
       <c r="F2">
-        <v>0.7893462469733655</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -474,7 +474,7 @@
         <v>0.418</v>
       </c>
       <c r="J2">
-        <v>0.652</v>
+        <v>0.6</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>0.762499988079071</v>
       </c>
       <c r="D3">
-        <v>0.9710000157356262</v>
+        <v>0.9629999995231628</v>
       </c>
       <c r="E3">
         <v>0.6885245901639345</v>
       </c>
       <c r="F3">
-        <v>0.9701338825952626</v>
+        <v>0.9615784008307372</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>0.525</v>
       </c>
       <c r="J3">
-        <v>0.9419999999999999</v>
+        <v>0.926</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>0.9049999713897705</v>
       </c>
       <c r="D4">
-        <v>0.984499990940094</v>
+        <v>0.9819999933242798</v>
       </c>
       <c r="E4">
         <v>0.8961748633879781</v>
       </c>
       <c r="F4">
-        <v>0.984255967496191</v>
+        <v>0.9816700610997963</v>
       </c>
       <c r="G4">
         <v>0.9879518072289156</v>
@@ -550,7 +550,7 @@
         <v>0.82</v>
       </c>
       <c r="J4">
-        <v>0.969</v>
+        <v>0.964</v>
       </c>
       <c r="K4">
         <v>0.01</v>
@@ -570,13 +570,13 @@
         <v>0.8899999856948853</v>
       </c>
       <c r="D5">
-        <v>0.9714999794960022</v>
+        <v>0.9825000166893005</v>
       </c>
       <c r="E5">
         <v>0.8764044943820225</v>
       </c>
       <c r="F5">
-        <v>0.970663921770458</v>
+        <v>0.9821882951653944</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -588,7 +588,7 @@
         <v>0.78</v>
       </c>
       <c r="J5">
-        <v>0.9429999999999999</v>
+        <v>0.965</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>0.9769999980926514</v>
       </c>
       <c r="D6">
-        <v>0.8169999718666077</v>
+        <v>0.9555000066757202</v>
       </c>
       <c r="E6">
         <v>0.9766260162601627</v>
       </c>
       <c r="F6">
-        <v>0.8451776649746192</v>
+        <v>0.9573550551030187</v>
       </c>
       <c r="G6">
         <v>0.9927685950413223</v>
       </c>
       <c r="H6">
-        <v>0.7324046920821115</v>
+        <v>0.9190432382704692</v>
       </c>
       <c r="I6">
         <v>0.961</v>
@@ -632,7 +632,7 @@
         <v>0.007</v>
       </c>
       <c r="L6">
-        <v>0.365</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -652,25 +652,25 @@
         <v>0.9832911392405063</v>
       </c>
       <c r="F7">
-        <v>0.9995002498750626</v>
+        <v>0.9994997498749374</v>
       </c>
       <c r="G7">
         <v>0.9958974358974358</v>
       </c>
       <c r="H7">
-        <v>0.999000999000999</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0.971</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="K7">
         <v>0.004</v>
       </c>
       <c r="L7">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -684,19 +684,19 @@
         <v>0.9934999942779541</v>
       </c>
       <c r="D8">
-        <v>0.9990000128746033</v>
+        <v>0.9994999766349792</v>
       </c>
       <c r="E8">
         <v>0.9934640522875817</v>
       </c>
       <c r="F8">
-        <v>0.999</v>
+        <v>0.9994997498749374</v>
       </c>
       <c r="G8">
         <v>0.9989888776541962</v>
       </c>
       <c r="H8">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0.988</v>
@@ -708,7 +708,7 @@
         <v>0.001</v>
       </c>
       <c r="L8">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -722,19 +722,19 @@
         <v>0.9955000281333923</v>
       </c>
       <c r="D9">
-        <v>0.996999979019165</v>
+        <v>0.9994999766349792</v>
       </c>
       <c r="E9">
         <v>0.9955067398901647</v>
       </c>
       <c r="F9">
-        <v>0.9970089730807578</v>
+        <v>0.9995002498750626</v>
       </c>
       <c r="G9">
         <v>0.9940179461615155</v>
       </c>
       <c r="H9">
-        <v>0.9940357852882704</v>
+        <v>0.999000999000999</v>
       </c>
       <c r="I9">
         <v>0.997</v>
@@ -746,7 +746,7 @@
         <v>0.006</v>
       </c>
       <c r="L9">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
